--- a/cd3_automation_toolkit/example/CD3-Firewall-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Firewall-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8A5E28-4B3B-F845-A310-5AFC71742528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC6467C-C157-554C-817A-3A0D2204FEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1910,96 +1910,6 @@
 www.oracle.com
 www.microsoft.com</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"Firewall Policy" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Name of the policy to which the Application list and Applications should be attached. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"List Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Name of the address list. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Address Type" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Type of the Addresses in the list. Supported address types - IP and FQDN(Case Sensitive)
-(Firewall does not support FQDN based address at this time support case need to be created)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Address List - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>List of addresses that need to be part of the address list, multiple address need to be sperated by comma in a single cell.
-e.g.
-10.10.1.10/32,3.1.1.1/32,3.1.1.3/32,172.2.0.0/24
-10.10.2.0/24</t>
-    </r>
-  </si>
-  <si>
-    <t>10.10.1.10/32,3.1.1.1/32,3.1.1.3/32,172.2.0.0/24
-172.21.0.128/25</t>
   </si>
   <si>
     <t>vcn-region-list</t>
@@ -2882,6 +2792,94 @@
     <t xml:space="preserve">
 CD3 Automation Toolkit Release - v2024.2.0
 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"Firewall Policy" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Name of the policy to which the Application list and Applications should be attached. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"List Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Name of the address list. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Address Type" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Type of the Addresses in the list. Supported address types - IP and FQDN(Case Sensitive)
+(Firewall does not support FQDN based address at this time support case need to be created)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Address List - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List of addresses that need to be part of the address list, multiple address need to be sperated by comma in a single cell.
+e.g.
+10.10.1.10/32,3.1.1.1/32,3.1.1.3/32,172.2.0.0/24</t>
+    </r>
+  </si>
+  <si>
+    <t>10.10.1.10/32,3.1.1.1/32,3.1.1.3/32,172.2.0.0/24</t>
   </si>
 </sst>
 </file>
@@ -5254,7 +5252,7 @@
     <row r="1" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -5285,7 +5283,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -5835,7 +5833,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="311" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -5887,17 +5885,17 @@
         <v>446</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E3" s="44"/>
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
       <c r="I3" s="44" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J3" s="44"/>
       <c r="K3" s="45"/>
@@ -5910,11 +5908,11 @@
         <v>446</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D4" s="44"/>
       <c r="E4" s="44" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F4" s="49" t="s">
         <v>452</v>
@@ -5929,7 +5927,7 @@
         <v>46</v>
       </c>
       <c r="J4" s="44" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K4" s="45"/>
     </row>
@@ -13219,7 +13217,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13292,7 +13290,7 @@
         <v>444</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>3</v>
+        <v>440</v>
       </c>
       <c r="E3" s="42" t="s">
         <v>445</v>
@@ -17475,7 +17473,7 @@
   <dimension ref="A1:E210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17488,9 +17486,9 @@
     <col min="6" max="25" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -17514,7 +17512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
         <v>152</v>
       </c>
@@ -17522,13 +17520,13 @@
         <v>446</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D3" s="44" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -17539,13 +17537,13 @@
         <v>446</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D4" s="44" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -19026,7 +19024,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -19413,13 +19411,13 @@
   <sheetData>
     <row r="1" spans="1:13" ht="197.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
       <c r="E1" s="56" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F1" s="57"/>
       <c r="G1" s="57"/>

--- a/cd3_automation_toolkit/example/CD3-Firewall-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Firewall-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC6467C-C157-554C-817A-3A0D2204FEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B059537-56F8-CA40-9D6A-48B695F2CB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
     <sheet name="Firewall" sheetId="2" r:id="rId2"/>
     <sheet name="Firewall-Policy" sheetId="3" r:id="rId3"/>
-    <sheet name="Firewall-Policy-Applicationlist" sheetId="4" r:id="rId4"/>
-    <sheet name="Firewall-Policy-Servicelist" sheetId="5" r:id="rId5"/>
-    <sheet name="Firewall-Policy-Urllist" sheetId="6" r:id="rId6"/>
-    <sheet name="Firewall-Policy-Address" sheetId="7" r:id="rId7"/>
-    <sheet name="Firewall-Policy-Secrets" sheetId="8" r:id="rId8"/>
-    <sheet name="Firewall-Policy-Decryptprofile" sheetId="9" r:id="rId9"/>
+    <sheet name="Firewall-Policy-ApplicationList" sheetId="4" r:id="rId4"/>
+    <sheet name="Firewall-Policy-ServiceList" sheetId="5" r:id="rId5"/>
+    <sheet name="Firewall-Policy-UrlList" sheetId="6" r:id="rId6"/>
+    <sheet name="Firewall-Policy-AddressList" sheetId="7" r:id="rId7"/>
+    <sheet name="Firewall-Policy-Secret" sheetId="8" r:id="rId8"/>
+    <sheet name="Firewall-Policy-DecryptProfile" sheetId="9" r:id="rId9"/>
     <sheet name="Firewall-Policy-DecryptRule" sheetId="10" r:id="rId10"/>
-    <sheet name="Firewall-Policy-Secrules" sheetId="11" r:id="rId11"/>
+    <sheet name="Firewall-Policy-SecRule" sheetId="11" r:id="rId11"/>
     <sheet name="drop_down_rule_set" sheetId="12" state="hidden" r:id="rId12"/>
     <sheet name="Database_Dropdown" sheetId="13" state="hidden" r:id="rId13"/>
     <sheet name="LB Rule Set Dropdown" sheetId="14" state="hidden" r:id="rId14"/>
@@ -1913,154 +1913,6 @@
   </si>
   <si>
     <t>vcn-region-list</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"Firewall Policy" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Name of the policy to which the Application list and Applications should be attached. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Vault Compartment Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Compartment name of the vault where we have the certificates stored as secret.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Secret Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Name for the mapped Secret</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Secret Source" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OCI_VAULT is the only source available at this time. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Secret Type" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SSL_FORWARD_PROXY or SSL_INBOUND_INSPECTION(Case sensitive) is the only supoprted secret type.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Vault Scret ID" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Name or the OCID of the Vault where we have the certificates.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Version Number" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Version number of the secret</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2324,193 +2176,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>default is false</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"Firewall Policy" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Name of the policy to which the Decrytpion rule be attached to. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Rule Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Name of the Decyrption Rule should be lesser than or equal to 50 charecters at this time. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Source Address" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Comma seperated address lists defined in Firewall-Policy-Address tab. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Destination Address" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Comma seperated address lists defined in Firewall-Policy-Address tab. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Action" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NO_DECRYPT or SSL_DECRYPT(Case sensitive) is the only supoprted Actions.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Secret Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Name for the mapped Secret from the Firewall-Policy-Secrets tab, It will be empty for NO_DECRYPT</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Decryption Profile" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Name for the Decryption Profile from the Firewall-Policy-Decryptionprofile tab.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Position - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Can be left empty to have the Policies deployed in same order in the sheet. To define position use the following example. 
-e.g.
-after_rule::no-decrypt-rule,before_rule::forward-proxy-rule
-after_rule::Inbound-inspection-1
-before_rule::Inbound-inspection-1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
     </r>
   </si>
   <si>
@@ -2880,6 +2545,341 @@
   </si>
   <si>
     <t>10.10.1.10/32,3.1.1.1/32,3.1.1.3/32,172.2.0.0/24</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"Firewall Policy" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Name of the policy to which the Decrytpion rule be attached to. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Rule Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Name of the Decyrption Rule should be lesser than or equal to 50 charecters at this time. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Source Address" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Comma seperated address lists defined in Firewall-Policy-Address tab. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Destination Address" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Comma seperated address lists defined in Firewall-Policy-Address tab. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Action" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO_DECRYPT or DECRYPT(Case sensitive) is the only supoprted Actions.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Secret Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name for the mapped Secret from the Firewall-Policy-Secrets tab, It will be empty for NO_DECRYPT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Decryption Profile" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name for the Decryption Profile from the Firewall-Policy-Decryptionprofile tab.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Position - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Can be left empty to have the Policies deployed in same order in the sheet. To define position use the following example. 
+e.g.
+after_rule::no-decrypt-rule,before_rule::forward-proxy-rule
+after_rule::Inbound-inspection-1
+before_rule::Inbound-inspection-1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"Firewall Policy" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Name of the policy to which the Application list and Applications should be attached. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Vault Compartment Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compartment name of the vault where we have the certificates stored as secret.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Secret Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name for the mapped Secret</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Secret Source" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OCI_VAULT is the only source available at this time. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Secret Type" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SSL_FORWARD_PROXY or SSL_INBOUND_INSPECTION(Case sensitive) is the only supoprted secret type.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Vault Secret ID" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name of the Vault where we have the certificates. Format - &lt;Valut Name::Secret name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Version Number" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Version number of the secret</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5252,7 +5252,7 @@
     <row r="1" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -5266,7 +5266,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5283,7 +5283,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -5815,7 +5815,7 @@
   <dimension ref="A1:K291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5833,7 +5833,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="311" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -5885,17 +5885,17 @@
         <v>446</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E3" s="44"/>
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
       <c r="I3" s="44" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J3" s="44"/>
       <c r="K3" s="45"/>
@@ -5908,7 +5908,7 @@
         <v>446</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D4" s="44"/>
       <c r="E4" s="44" t="s">
@@ -5927,7 +5927,7 @@
         <v>46</v>
       </c>
       <c r="J4" s="44" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K4" s="45"/>
     </row>
@@ -13899,7 +13899,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14495,7 +14495,7 @@
   <dimension ref="A1:H268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16152,7 +16152,7 @@
   <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16880,7 +16880,7 @@
   <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17473,7 +17473,7 @@
   <dimension ref="A1:E210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17488,7 +17488,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -17526,7 +17526,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -17537,13 +17537,13 @@
         <v>446</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D4" s="44" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -19008,7 +19008,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19024,7 +19024,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -19389,7 +19389,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19411,13 +19411,13 @@
   <sheetData>
     <row r="1" spans="1:13" ht="197.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
       <c r="E1" s="56" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F1" s="57"/>
       <c r="G1" s="57"/>

--- a/cd3_automation_toolkit/example/CD3-Firewall-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Firewall-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-master/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A76692B-FAF6-624C-BC35-86F411CCACA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A1F8E7-98E8-5741-8FE2-5EFBDC73010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2301,11 +2301,6 @@
     <t>after_rule::rule-1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-CD3 Automation Toolkit Release - v2024.2.0
-</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
 "Firewall Policy" - </t>
@@ -2926,6 +2921,11 @@
   </si>
   <si>
     <t>sk-fw02-fwdproxy-dp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CD3 Automation Toolkit Release - v2024.3.0
+</t>
   </si>
 </sst>
 </file>
@@ -3381,6 +3381,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3393,12 +3399,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5314,7 +5314,7 @@
     <row r="1" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -5344,17 +5344,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="228" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
-        <v>467</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="A1" s="58" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -7832,18 +7832,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="311" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -17419,18 +17419,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="176.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
-        <v>468</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="A1" s="58" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -18096,12 +18096,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
     </row>
     <row r="2" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -18692,12 +18692,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="213.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -20350,12 +20350,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -21076,12 +21076,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -21672,13 +21672,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
-        <v>465</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="A1" s="58" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -21711,7 +21711,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -23211,17 +23211,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
-        <v>469</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="A1" s="58" t="s">
+        <v>468</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -23261,16 +23261,16 @@
         <v>445</v>
       </c>
       <c r="D3" s="54" t="s">
+        <v>469</v>
+      </c>
+      <c r="E3" s="54" t="s">
         <v>470</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="F3" s="54" t="s">
         <v>471</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="G3" s="54" t="s">
         <v>472</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>473</v>
       </c>
       <c r="H3" s="54">
         <v>1</v>
@@ -23288,16 +23288,16 @@
         <v>445</v>
       </c>
       <c r="D4" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>470</v>
+      </c>
+      <c r="F4" s="44" t="s">
         <v>474</v>
       </c>
-      <c r="E4" s="44" t="s">
-        <v>471</v>
-      </c>
-      <c r="F4" s="44" t="s">
+      <c r="G4" s="54" t="s">
         <v>475</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>476</v>
       </c>
       <c r="H4" s="44">
         <v>1</v>
@@ -26296,23 +26296,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="197.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="58" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>456</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -26362,27 +26362,27 @@
       <c r="B3" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="C3" s="62" t="s">
-        <v>477</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>472</v>
-      </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62" t="b">
+      <c r="C3" s="57" t="s">
+        <v>476</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>471</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62" t="b">
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="62" t="b">
+      <c r="L3" s="57" t="b">
         <v>1</v>
       </c>
-      <c r="M3" s="61"/>
+      <c r="M3" s="56"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
@@ -26392,10 +26392,10 @@
         <v>445</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E4" s="44" t="b">
         <v>1</v>

--- a/cd3_automation_toolkit/example/CD3-Firewall-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Firewall-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-master/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A1F8E7-98E8-5741-8FE2-5EFBDC73010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643C6F4E-D433-254C-A735-D736D7598872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="760" windowWidth="28320" windowHeight="17660" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="488">
   <si>
     <t>Region</t>
   </si>
@@ -2923,8 +2923,35 @@
     <t>sk-fw02-fwdproxy-dp</t>
   </si>
   <si>
+    <t>##Commercial##</t>
+  </si>
+  <si>
+    <t>Bogota</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>Valparaiso</t>
+  </si>
+  <si>
+    <t>##US Gov##</t>
+  </si>
+  <si>
+    <t>##US Defence##</t>
+  </si>
+  <si>
+    <t>##UK Gov##</t>
+  </si>
+  <si>
+    <t>&lt;END&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-CD3 Automation Toolkit Release - v2024.3.0
+CD3 Automation Toolkit Release - v2024.4.1
 </t>
   </si>
 </sst>
@@ -3251,7 +3278,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3400,6 +3427,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -5314,7 +5351,7 @@
     <row r="1" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -5328,7 +5365,7 @@
   <dimension ref="A1:I690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7798,7 +7835,7 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation sqref="A1:A3 A9 C2 G3:G4 G6:G8 G10" xr:uid="{00000000-0002-0000-0900-000000000000}"/>
+    <dataValidation sqref="G6:G8 G10 C2 G3:G4 A1:A2" xr:uid="{00000000-0002-0000-0900-000000000000}"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>FirewallPolicyReference</formula1>
     </dataValidation>
@@ -7807,6 +7844,18 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{D4A3A8F6-959D-3F4D-9FD3-71362BD7D521}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$54</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13858,15 +13907,27 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{25AF6E24-71E7-444B-A135-EC49F74B91D3}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$54</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:AN50"/>
+  <dimension ref="A1:AN54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="C1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14031,7 +14092,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>3</v>
       </c>
@@ -14050,8 +14111,8 @@
       <c r="F2" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="G2" t="s">
-        <v>91</v>
+      <c r="G2" s="63" t="s">
+        <v>478</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>92</v>
@@ -14172,8 +14233,8 @@
       <c r="F3" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="G3" t="s">
-        <v>122</v>
+      <c r="G3" s="45" t="s">
+        <v>91</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>123</v>
@@ -14287,7 +14348,7 @@
       </c>
       <c r="F4" s="23"/>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
@@ -14367,7 +14428,7 @@
       </c>
       <c r="F5" s="23"/>
       <c r="G5" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="23" t="s">
@@ -14424,7 +14485,7 @@
       </c>
       <c r="F6" s="23"/>
       <c r="G6" t="s">
-        <v>176</v>
+        <v>479</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
@@ -14473,7 +14534,7 @@
       </c>
       <c r="F7" s="23"/>
       <c r="G7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
@@ -14520,7 +14581,7 @@
       </c>
       <c r="F8" s="23"/>
       <c r="G8" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
@@ -14567,7 +14628,7 @@
       </c>
       <c r="F9" s="23"/>
       <c r="G9" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
@@ -14614,7 +14675,7 @@
       </c>
       <c r="F10" s="23"/>
       <c r="G10" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
@@ -14661,7 +14722,7 @@
       </c>
       <c r="F11" s="23"/>
       <c r="G11" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
@@ -14702,7 +14763,7 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -14741,7 +14802,7 @@
       </c>
       <c r="F13" s="23"/>
       <c r="G13" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
@@ -14780,7 +14841,7 @@
       </c>
       <c r="F14" s="23"/>
       <c r="G14" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
@@ -14819,7 +14880,7 @@
       </c>
       <c r="F15" s="23"/>
       <c r="G15" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
@@ -14858,7 +14919,7 @@
       </c>
       <c r="F16" s="23"/>
       <c r="G16" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
@@ -14897,7 +14958,7 @@
       </c>
       <c r="F17" s="23"/>
       <c r="G17" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -14936,7 +14997,7 @@
       </c>
       <c r="F18" s="23"/>
       <c r="G18" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -14975,7 +15036,7 @@
       </c>
       <c r="F19" s="23"/>
       <c r="G19" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -15014,7 +15075,7 @@
       </c>
       <c r="F20" s="23"/>
       <c r="G20" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
@@ -15053,7 +15114,7 @@
       </c>
       <c r="F21" s="23"/>
       <c r="G21" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -15092,7 +15153,7 @@
       </c>
       <c r="F22" s="23"/>
       <c r="G22" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -15131,7 +15192,7 @@
       </c>
       <c r="F23" s="23"/>
       <c r="G23" t="s">
-        <v>226</v>
+        <v>480</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
@@ -15170,7 +15231,7 @@
       </c>
       <c r="F24" s="23"/>
       <c r="G24" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -15209,7 +15270,7 @@
       </c>
       <c r="F25" s="23"/>
       <c r="G25" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -15248,7 +15309,7 @@
       </c>
       <c r="F26" s="23"/>
       <c r="G26" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
@@ -15287,7 +15348,7 @@
       </c>
       <c r="F27" s="23"/>
       <c r="G27" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
@@ -15326,7 +15387,7 @@
       </c>
       <c r="F28" s="23"/>
       <c r="G28" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
@@ -15365,7 +15426,7 @@
       </c>
       <c r="F29" s="23"/>
       <c r="G29" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
@@ -15404,7 +15465,7 @@
       </c>
       <c r="F30" s="23"/>
       <c r="G30" t="s">
-        <v>240</v>
+        <v>481</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
@@ -15443,7 +15504,7 @@
       </c>
       <c r="F31" s="23"/>
       <c r="G31" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
@@ -15482,7 +15543,7 @@
       </c>
       <c r="F32" s="23"/>
       <c r="G32" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
@@ -15521,7 +15582,7 @@
       </c>
       <c r="F33" s="23"/>
       <c r="G33" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
@@ -15560,7 +15621,7 @@
       </c>
       <c r="F34" s="23"/>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
@@ -15599,7 +15660,7 @@
       </c>
       <c r="F35" s="23"/>
       <c r="G35" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
@@ -15638,7 +15699,7 @@
       </c>
       <c r="F36" s="23"/>
       <c r="G36" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
@@ -15677,7 +15738,7 @@
       </c>
       <c r="F37" s="23"/>
       <c r="G37" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
@@ -15716,7 +15777,7 @@
       </c>
       <c r="F38" s="23"/>
       <c r="G38" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
@@ -15755,7 +15816,7 @@
       </c>
       <c r="F39" s="23"/>
       <c r="G39" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
@@ -15793,8 +15854,8 @@
         <v>41</v>
       </c>
       <c r="F40" s="23"/>
-      <c r="G40" t="s">
-        <v>259</v>
+      <c r="G40" s="64" t="s">
+        <v>482</v>
       </c>
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
@@ -15831,7 +15892,7 @@
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K41" s="23"/>
       <c r="M41" s="23"/>
@@ -15844,7 +15905,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K42" s="23"/>
       <c r="M42" s="23"/>
@@ -15856,7 +15917,7 @@
         <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K43" s="23"/>
       <c r="M43" s="23"/>
@@ -15867,8 +15928,8 @@
       <c r="A44" s="22">
         <v>45</v>
       </c>
-      <c r="G44" t="s">
-        <v>264</v>
+      <c r="G44" s="65" t="s">
+        <v>483</v>
       </c>
       <c r="K44" s="23"/>
       <c r="M44" s="23"/>
@@ -15879,6 +15940,9 @@
       <c r="A45" s="22">
         <v>46</v>
       </c>
+      <c r="G45" t="s">
+        <v>220</v>
+      </c>
       <c r="K45" s="23"/>
       <c r="M45" s="23"/>
       <c r="T45" s="23"/>
@@ -15888,6 +15952,9 @@
       <c r="A46" s="22">
         <v>47</v>
       </c>
+      <c r="G46" t="s">
+        <v>224</v>
+      </c>
       <c r="K46" s="23"/>
       <c r="M46" s="23"/>
       <c r="T46" s="23"/>
@@ -15897,6 +15964,9 @@
       <c r="A47" s="22">
         <v>48</v>
       </c>
+      <c r="G47" s="66" t="s">
+        <v>484</v>
+      </c>
       <c r="K47" s="23"/>
       <c r="M47" s="23"/>
       <c r="T47" s="23"/>
@@ -15906,6 +15976,9 @@
       <c r="A48" s="22">
         <v>49</v>
       </c>
+      <c r="G48" t="s">
+        <v>196</v>
+      </c>
       <c r="K48" s="23"/>
       <c r="M48" s="23"/>
       <c r="T48" s="23"/>
@@ -15915,13 +15988,39 @@
       <c r="A49" s="22">
         <v>50</v>
       </c>
+      <c r="G49" t="s">
+        <v>204</v>
+      </c>
       <c r="K49" s="23"/>
       <c r="M49" s="23"/>
       <c r="T49" s="23"/>
       <c r="U49" s="23"/>
     </row>
     <row r="50" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>208</v>
+      </c>
       <c r="AB50" s="28"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="G51" s="66" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="G54" s="64" t="s">
+        <v>486</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18076,6 +18175,18 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{66EE3B90-7268-3B4F-805B-5B100E590ED9}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$54</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -18672,6 +18783,18 @@
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="D3:D6" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{8998A1F6-D2B2-A342-9E1A-B7D44F0724D1}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$54</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -18680,7 +18803,7 @@
   <dimension ref="A1:H268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20323,12 +20446,24 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation sqref="A1:A2 A7 C2:D2 C4:D4 C6:D7" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation sqref="A1:A2 C6:D7 C2:D2 C4:D4" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B3:B262" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>FirewallPolicyReference</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{11035221-94D8-E847-99C8-A2D0C10D50C2}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$54</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -20337,7 +20472,7 @@
   <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21057,6 +21192,18 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{C32503C6-D3AD-4A43-953E-BB09827ED944}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$54</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -21650,6 +21797,18 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{ED86C43F-85F4-224E-8D9C-BAC89EBAC03B}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$54</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -21658,7 +21817,7 @@
   <dimension ref="A1:E210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23188,6 +23347,18 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{7887EB36-006A-3344-AA83-B71AC30392E9}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$54</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -26267,6 +26438,18 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{EFB8A886-A641-4B49-87D9-97FF8FED0F29}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$54</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -28543,7 +28726,7 @@
     <mergeCell ref="E1:M1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation sqref="A1:A4 E6 C6 C2:E3" xr:uid="{00000000-0002-0000-0800-000000000000}"/>
+    <dataValidation sqref="C2:E3 E6 C6 A1:A2" xr:uid="{00000000-0002-0000-0800-000000000000}"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>FirewallPolicyReference</formula1>
     </dataValidation>
@@ -28553,5 +28736,17 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{8D81CB4D-1D8D-4B44-B449-D2FC309743D7}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$54</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/cd3_automation_toolkit/example/CD3-Firewall-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Firewall-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643C6F4E-D433-254C-A735-D736D7598872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B960EC2-9A06-F34A-912D-4026B516AE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="760" windowWidth="28320" windowHeight="17660" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3200" windowWidth="28320" windowHeight="17300" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -2950,9 +2950,49 @@
     <t>&lt;END&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">
-CD3 Automation Toolkit Release - v2024.4.1
-</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD3 Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release - v2024.4.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ Modified description in KMS sheet, Modified delimiters in ServiceConectors sheet</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3401,9 +3441,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3414,6 +3451,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3427,16 +3474,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -5350,7 +5390,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="66" t="s">
         <v>487</v>
       </c>
     </row>
@@ -5381,17 +5421,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="228" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>466</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -7881,18 +7921,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="311" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -14111,7 +14151,7 @@
       <c r="F2" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="57" t="s">
         <v>478</v>
       </c>
       <c r="H2" s="23" t="s">
@@ -15854,7 +15894,7 @@
         <v>41</v>
       </c>
       <c r="F40" s="23"/>
-      <c r="G40" s="64" t="s">
+      <c r="G40" s="58" t="s">
         <v>482</v>
       </c>
       <c r="H40" s="23"/>
@@ -15928,7 +15968,7 @@
       <c r="A44" s="22">
         <v>45</v>
       </c>
-      <c r="G44" s="65" t="s">
+      <c r="G44" s="59" t="s">
         <v>483</v>
       </c>
       <c r="K44" s="23"/>
@@ -15964,7 +16004,7 @@
       <c r="A47" s="22">
         <v>48</v>
       </c>
-      <c r="G47" s="66" t="s">
+      <c r="G47" s="60" t="s">
         <v>484</v>
       </c>
       <c r="K47" s="23"/>
@@ -16003,7 +16043,7 @@
       <c r="AB50" s="28"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="G51" s="66" t="s">
+      <c r="G51" s="60" t="s">
         <v>485</v>
       </c>
     </row>
@@ -16018,7 +16058,7 @@
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="G54" s="64" t="s">
+      <c r="G54" s="58" t="s">
         <v>486</v>
       </c>
     </row>
@@ -17518,18 +17558,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="176.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -18207,12 +18247,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -18815,12 +18855,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="213.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>447</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -20485,12 +20525,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -21223,12 +21263,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -21831,13 +21871,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -23382,17 +23422,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -23431,22 +23471,22 @@
       <c r="C3" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="53" t="s">
         <v>469</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="53" t="s">
         <v>470</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="53" t="s">
         <v>471</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="53" t="s">
         <v>472</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="53">
         <v>1</v>
       </c>
-      <c r="I3" s="55"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
@@ -23467,7 +23507,7 @@
       <c r="F4" s="44" t="s">
         <v>474</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="53" t="s">
         <v>475</v>
       </c>
       <c r="H4" s="44">
@@ -26479,23 +26519,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="197.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="63" t="s">
         <v>456</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -26545,27 +26585,27 @@
       <c r="B3" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="56" t="s">
         <v>476</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="56" t="s">
         <v>471</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57" t="b">
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57" t="b">
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="57" t="b">
+      <c r="L3" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="M3" s="56"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">

--- a/cd3_automation_toolkit/example/CD3-Firewall-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Firewall-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B63B54A-B513-C345-A514-6EFD51B46A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C37E6D-38D9-7549-9481-7D34ED045FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2100" windowWidth="30240" windowHeight="17480" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="463">
   <si>
     <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
 "IPv4 Address" - IPv4 Address that the firewall should be assigned with. Leave empty to auto-assign.
@@ -962,9 +962,6 @@
   </si>
   <si>
     <t>UNBIND</t>
-  </si>
-  <si>
-    <t>Singapore</t>
   </si>
   <si>
     <t>UNCHECKOUT</t>
@@ -1622,6 +1619,12 @@
   <si>
     <t>CD3 Automation Toolkit Release - v2025.1.0
   Added MySQL sheets,  Added Firewall-Policy-TunnelInspect sheet for tunnel inspection</t>
+  </si>
+  <si>
+    <t>Singapore-1</t>
+  </si>
+  <si>
+    <t>Singapore-2</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +1983,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2137,6 +2140,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -4051,7 +4063,7 @@
     <row r="1" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -4086,7 +4098,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -6578,7 +6590,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="311" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -12604,7 +12616,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -18926,10 +18938,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:AN54"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20662,7 +20674,7 @@
       </c>
       <c r="F35" s="23"/>
       <c r="G35" t="s">
-        <v>257</v>
+        <v>461</v>
       </c>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
@@ -20688,59 +20700,54 @@
       <c r="AC35" s="23"/>
       <c r="AD35" s="23"/>
       <c r="AE35" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF35" s="26"/>
       <c r="AG35" s="23"/>
       <c r="AH35" s="23"/>
       <c r="AI35" s="23"/>
     </row>
-    <row r="36" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="22">
-        <v>37</v>
-      </c>
-      <c r="F36" s="23"/>
+    <row r="36" spans="1:35" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="70"/>
       <c r="G36" t="s">
-        <v>259</v>
-      </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="23"/>
-      <c r="AD36" s="23"/>
-      <c r="AE36" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="23"/>
-      <c r="AH36" s="23"/>
-      <c r="AI36" s="23"/>
+        <v>462</v>
+      </c>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="70"/>
+      <c r="R36" s="70"/>
+      <c r="S36" s="70"/>
+      <c r="T36" s="70"/>
+      <c r="U36" s="70"/>
+      <c r="V36" s="70"/>
+      <c r="W36" s="70"/>
+      <c r="X36" s="70"/>
+      <c r="Y36" s="70"/>
+      <c r="Z36" s="70"/>
+      <c r="AA36" s="70"/>
+      <c r="AB36" s="70"/>
+      <c r="AC36" s="70"/>
+      <c r="AD36" s="70"/>
+      <c r="AE36" s="70"/>
+      <c r="AF36" s="71"/>
+      <c r="AG36" s="70"/>
+      <c r="AH36" s="70"/>
+      <c r="AI36" s="70"/>
     </row>
     <row r="37" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F37" s="23"/>
       <c r="G37" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
@@ -20766,7 +20773,7 @@
       <c r="AC37" s="23"/>
       <c r="AD37" s="23"/>
       <c r="AE37" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AF37" s="26"/>
       <c r="AG37" s="23"/>
@@ -20775,11 +20782,11 @@
     </row>
     <row r="38" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F38" s="23"/>
       <c r="G38" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
@@ -20805,7 +20812,7 @@
       <c r="AC38" s="23"/>
       <c r="AD38" s="23"/>
       <c r="AE38" s="23" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AF38" s="26"/>
       <c r="AG38" s="23"/>
@@ -20814,11 +20821,11 @@
     </row>
     <row r="39" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" s="23"/>
       <c r="G39" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
@@ -20844,7 +20851,7 @@
       <c r="AC39" s="23"/>
       <c r="AD39" s="23"/>
       <c r="AE39" s="23" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AF39" s="26"/>
       <c r="AG39" s="23"/>
@@ -20853,11 +20860,11 @@
     </row>
     <row r="40" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="22">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40" s="23"/>
-      <c r="G40" s="54" t="s">
-        <v>267</v>
+      <c r="G40" t="s">
+        <v>264</v>
       </c>
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
@@ -20879,10 +20886,11 @@
       <c r="Y40" s="23"/>
       <c r="Z40" s="23"/>
       <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
       <c r="AC40" s="23"/>
       <c r="AD40" s="23"/>
       <c r="AE40" s="23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AF40" s="26"/>
       <c r="AG40" s="23"/>
@@ -20891,35 +20899,61 @@
     </row>
     <row r="41" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22">
-        <v>42</v>
-      </c>
-      <c r="G41" t="s">
-        <v>269</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
       <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
       <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
       <c r="T41" s="23"/>
       <c r="U41" s="23"/>
-      <c r="AF41" s="27"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="23"/>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="23"/>
+      <c r="AE41" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF41" s="26"/>
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
     </row>
     <row r="42" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="K42" s="23"/>
       <c r="M42" s="23"/>
       <c r="T42" s="23"/>
       <c r="U42" s="23"/>
+      <c r="AF42" s="27"/>
     </row>
     <row r="43" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="K43" s="23"/>
       <c r="M43" s="23"/>
@@ -20928,10 +20962,10 @@
     </row>
     <row r="44" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22">
-        <v>45</v>
-      </c>
-      <c r="G44" s="55" t="s">
-        <v>271</v>
+        <v>44</v>
+      </c>
+      <c r="G44" t="s">
+        <v>269</v>
       </c>
       <c r="K44" s="23"/>
       <c r="M44" s="23"/>
@@ -20940,10 +20974,10 @@
     </row>
     <row r="45" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="22">
-        <v>46</v>
-      </c>
-      <c r="G45" t="s">
-        <v>272</v>
+        <v>45</v>
+      </c>
+      <c r="G45" s="55" t="s">
+        <v>270</v>
       </c>
       <c r="K45" s="23"/>
       <c r="M45" s="23"/>
@@ -20952,10 +20986,10 @@
     </row>
     <row r="46" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K46" s="23"/>
       <c r="M46" s="23"/>
@@ -20964,10 +20998,10 @@
     </row>
     <row r="47" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="22">
-        <v>48</v>
-      </c>
-      <c r="G47" s="56" t="s">
-        <v>274</v>
+        <v>47</v>
+      </c>
+      <c r="G47" t="s">
+        <v>272</v>
       </c>
       <c r="K47" s="23"/>
       <c r="M47" s="23"/>
@@ -20976,10 +21010,10 @@
     </row>
     <row r="48" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22">
-        <v>49</v>
-      </c>
-      <c r="G48" t="s">
-        <v>275</v>
+        <v>48</v>
+      </c>
+      <c r="G48" s="56" t="s">
+        <v>273</v>
       </c>
       <c r="K48" s="23"/>
       <c r="M48" s="23"/>
@@ -20988,10 +21022,10 @@
     </row>
     <row r="49" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K49" s="23"/>
       <c r="M49" s="23"/>
@@ -20999,29 +21033,41 @@
       <c r="U49" s="23"/>
     </row>
     <row r="50" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="22">
+        <v>50</v>
+      </c>
       <c r="G50" t="s">
+        <v>275</v>
+      </c>
+      <c r="K50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
+    </row>
+    <row r="51" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB51" s="28"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="G52" s="56" t="s">
         <v>277</v>
-      </c>
-      <c r="AB50" s="28"/>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="G51" s="56" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="G52" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="G53" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="G55" s="54" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="G54" s="54" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -21060,73 +21106,73 @@
   <sheetData>
     <row r="1" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="K1" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>292</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>293</v>
       </c>
       <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="D2" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="E2" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="F2" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="35" t="s">
         <v>300</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>301</v>
       </c>
       <c r="I2" s="14">
         <v>80</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K2" s="35">
         <v>1</v>
@@ -21137,34 +21183,34 @@
     </row>
     <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="C3" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="D3" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="G3" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="35" t="s">
         <v>309</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>310</v>
       </c>
       <c r="I3" s="14">
         <v>40</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K3" s="35">
         <v>2</v>
@@ -21175,667 +21221,667 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="C4" s="35" t="s">
         <v>313</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>314</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F4" s="35"/>
       <c r="H4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L4" t="s">
         <v>316</v>
-      </c>
-      <c r="L4" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="35" t="s">
         <v>319</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>320</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F5" s="35"/>
       <c r="H5" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="L5" t="s">
         <v>322</v>
-      </c>
-      <c r="L5" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F6" s="35"/>
       <c r="H6" s="35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F7" s="35"/>
       <c r="H7" s="35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F8" s="35"/>
       <c r="H8" s="35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F9" s="35"/>
       <c r="H9" s="35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F10" s="35"/>
       <c r="H10" s="35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F11" s="35"/>
       <c r="H11" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F12" s="35"/>
       <c r="H12" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F13" s="35"/>
       <c r="H13" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="H14" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H15" s="35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H16" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H17" s="35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H18" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H19" s="35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H20" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H21" s="35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H22" s="35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H23" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H24" s="35" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H25" s="35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H26" s="35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H27" s="35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H28" s="35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H29" s="35" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H30" s="35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H31" s="35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H32" s="35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H33" s="35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H34" s="35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H35" s="35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H36" s="35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H37" s="35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H38" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H39" s="35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H40" s="35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H41" s="35" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H42" s="35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H43" s="35" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H44" s="35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H45" s="35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H46" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H47" s="35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H48" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H49" s="35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H50" s="35" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H51" s="35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H52" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H53" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H54" s="35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H55" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H56" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H57" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H58" s="35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H59" s="35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H60" s="35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H61" s="35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H62" s="35" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H63" s="35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H64" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H65" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H66" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H67" s="35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H68" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H69" s="35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H70" s="35" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H71" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H72" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H73" s="35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H74" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H75" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H76" s="35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H77" s="35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H78" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H79" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H80" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H81" s="35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H82" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H83" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H84" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H85" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H86" s="35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H87" s="35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H88" s="35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H89" s="35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H90" s="35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H91" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H92" s="35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H93" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H94" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H95" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H96" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H97" s="35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H98" s="35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H99" s="35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H100" s="35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H101" s="35" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H102" s="35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H103" s="35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H104" s="35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H105" s="35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H106" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H107" s="35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H108" s="35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -22136,32 +22182,32 @@
     </row>
     <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22196,13 +22242,13 @@
         <v>54</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
       <c r="B2" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -22210,7 +22256,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -22218,7 +22264,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -22226,7 +22272,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -22234,7 +22280,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">

--- a/cd3_automation_toolkit/example/CD3-Firewall-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Firewall-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C37E6D-38D9-7549-9481-7D34ED045FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98794EFF-52BE-5549-827D-0DA7E9D3DEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-380" yWindow="1920" windowWidth="30240" windowHeight="17480" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -1617,14 +1617,55 @@
 </t>
   </si>
   <si>
-    <t>CD3 Automation Toolkit Release - v2025.1.0
-  Added MySQL sheets,  Added Firewall-Policy-TunnelInspect sheet for tunnel inspection</t>
-  </si>
-  <si>
     <t>Singapore-1</t>
   </si>
   <si>
     <t>Singapore-2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD3 Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release - v2025.1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Updated Region column - added support for multiple data centers in one region like Singapore</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2127,6 +2168,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2140,15 +2190,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -4063,7 +4104,7 @@
     <row r="1" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -4097,17 +4138,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="228" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="65" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -6589,18 +6630,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="311" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="65" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -12615,15 +12656,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="228" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="65" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -20674,7 +20715,7 @@
       </c>
       <c r="F35" s="23"/>
       <c r="G35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
@@ -20707,39 +20748,39 @@
       <c r="AH35" s="23"/>
       <c r="AI35" s="23"/>
     </row>
-    <row r="36" spans="1:35" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F36" s="70"/>
+    <row r="36" spans="1:35" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="63"/>
       <c r="G36" t="s">
-        <v>462</v>
-      </c>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="70"/>
-      <c r="P36" s="70"/>
-      <c r="Q36" s="70"/>
-      <c r="R36" s="70"/>
-      <c r="S36" s="70"/>
-      <c r="T36" s="70"/>
-      <c r="U36" s="70"/>
-      <c r="V36" s="70"/>
-      <c r="W36" s="70"/>
-      <c r="X36" s="70"/>
-      <c r="Y36" s="70"/>
-      <c r="Z36" s="70"/>
-      <c r="AA36" s="70"/>
-      <c r="AB36" s="70"/>
-      <c r="AC36" s="70"/>
-      <c r="AD36" s="70"/>
-      <c r="AE36" s="70"/>
-      <c r="AF36" s="71"/>
-      <c r="AG36" s="70"/>
-      <c r="AH36" s="70"/>
-      <c r="AI36" s="70"/>
+        <v>461</v>
+      </c>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
+      <c r="AC36" s="63"/>
+      <c r="AD36" s="63"/>
+      <c r="AE36" s="63"/>
+      <c r="AF36" s="64"/>
+      <c r="AG36" s="63"/>
+      <c r="AH36" s="63"/>
+      <c r="AI36" s="63"/>
     </row>
     <row r="37" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22">
@@ -22582,18 +22623,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="176.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -23309,12 +23350,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
     </row>
     <row r="2" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -23957,12 +23998,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="213.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -26764,12 +26805,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="71"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -27653,12 +27694,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -28245,13 +28286,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -29824,17 +29865,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -32879,23 +32920,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="197.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="64" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
